--- a/input/calorimetry/ds.4.overfilled/data.xlsx
+++ b/input/calorimetry/ds.4.overfilled/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -106,10 +106,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -177,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +188,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,7 +215,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AS2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +312,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AS2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,10 +361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="1" sqref="AS2 A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1069,247 +1074,233 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>0.001047</v>
+        <v>0.00120095141700405</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.001047</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.00103853513825829</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>0.00120095141700405</v>
+        <v>0.00148727300480257</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.00103853513825829</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.00102276790437785</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>0.00148727300480257</v>
+        <v>0.00176924760493209</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.00102276790437785</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.00100724005157859</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>0.00176924760493209</v>
+        <v>0.00204694121416895</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.00100724005157859</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000991947945532358</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>0.00204694121416895</v>
+        <v>0.00232041882731415</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.000991947945532358</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.00097688800708804</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>0.00232041882731415</v>
+        <v>0.00258974445240554</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.00097688800708804</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.00096205671143387</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>0.00258974445240554</v>
+        <v>0.00285498112569898</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.00096205671143387</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000947450587272424</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>0.00285498112569898</v>
+        <v>0.00311619092642217</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.000947450587272424</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000933066216008167</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>0.00311619092642217</v>
+        <v>0.00337343499130443</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.000933066216008167</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000918900230947314</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>0.00337343499130443</v>
+        <v>0.00362677352888584</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.000918900230947314</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000904949316509855</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>0.00362677352888584</v>
+        <v>0.00387626583360923</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.000904949316509855</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000891210207453531</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.00387626583360923</v>
+        <v>0.00412197029969816</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.000891210207453531</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000877679688109601</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>0.00412197029969816</v>
+        <v>0.0043639444348242</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.000877679688109601</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000864354591630204</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>0.0043639444348242</v>
+        <v>0.00460224487356675</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.000864354591630204</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000851231799247154</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>0.00460224487356675</v>
+        <v>0.00483692739066846</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.000851231799247154</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000838308239541985</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>0.00483692739066846</v>
+        <v>0.00506804691408949</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.000838308239541985</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>1E-016</v>
+        <v>0.000825580887727076</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>1E-019</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>0.00506804691408949</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>0.000825580887727076</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>1E-016</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1326,20 +1317,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA13" activeCellId="0" sqref="BA13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="61" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>13</v>
       </c>
@@ -1517,11 +1509,8 @@
       <c r="BG1" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
@@ -1655,55 +1644,52 @@
         <v>0.004</v>
       </c>
       <c r="AS2" s="0" t="n">
-        <v>0.002</v>
+        <v>0.015</v>
       </c>
       <c r="AT2" s="0" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="AU2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="AV2" s="0" t="n">
-        <v>0.0150000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="AW2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="AX2" s="0" t="n">
-        <v>0.0150000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="AY2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="AZ2" s="0" t="n">
-        <v>0.0150000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="BA2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="BB2" s="0" t="n">
-        <v>0.0150000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="BC2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="BD2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="BE2" s="0" t="n">
-        <v>0.0150000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="BF2" s="0" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="BG2" s="0" t="n">
-        <v>0.0150000000000001</v>
-      </c>
-      <c r="BH2" s="0" t="n">
-        <v>0.0149999999999999</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
@@ -1837,55 +1823,52 @@
         <v>3.4E-005</v>
       </c>
       <c r="AS3" s="0" t="n">
-        <v>0.000625</v>
+        <v>0.000688</v>
       </c>
       <c r="AT3" s="0" t="n">
-        <v>0.000688</v>
+        <v>0.000251</v>
       </c>
       <c r="AU3" s="0" t="n">
-        <v>0.000251</v>
+        <v>0.000149</v>
       </c>
       <c r="AV3" s="0" t="n">
-        <v>0.000149</v>
+        <v>0.000107</v>
       </c>
       <c r="AW3" s="0" t="n">
-        <v>0.000107</v>
+        <v>8.5E-005</v>
       </c>
       <c r="AX3" s="0" t="n">
-        <v>8.5E-005</v>
+        <v>7.8E-005</v>
       </c>
       <c r="AY3" s="0" t="n">
-        <v>7.8E-005</v>
+        <v>6.7E-005</v>
       </c>
       <c r="AZ3" s="0" t="n">
-        <v>6.7E-005</v>
+        <v>5.8E-005</v>
       </c>
       <c r="BA3" s="0" t="n">
-        <v>5.8E-005</v>
+        <v>5.4E-005</v>
       </c>
       <c r="BB3" s="0" t="n">
-        <v>5.4E-005</v>
+        <v>5.3E-005</v>
       </c>
       <c r="BC3" s="0" t="n">
         <v>5.3E-005</v>
       </c>
       <c r="BD3" s="0" t="n">
-        <v>5.3E-005</v>
+        <v>4.8E-005</v>
       </c>
       <c r="BE3" s="0" t="n">
-        <v>4.8E-005</v>
+        <v>4.1E-005</v>
       </c>
       <c r="BF3" s="0" t="n">
-        <v>4.1E-005</v>
+        <v>3.8E-005</v>
       </c>
       <c r="BG3" s="0" t="n">
         <v>3.8E-005</v>
       </c>
-      <c r="BH3" s="0" t="n">
-        <v>3.8E-005</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>16</v>
       </c>
@@ -2063,11 +2046,8 @@
       <c r="BG4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BH4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
@@ -2243,9 +2223,6 @@
         <v>1E-009</v>
       </c>
       <c r="BG5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BH5" s="0" t="n">
         <v>1E-009</v>
       </c>
     </row>
@@ -2267,8 +2244,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="AS2 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2319,7 +2296,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="AS2 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/input/calorimetry/ds.4.overfilled/data.xlsx
+++ b/input/calorimetry/ds.4.overfilled/data.xlsx
@@ -215,7 +215,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AS2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +312,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AS2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,7 +364,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="1" sqref="AS2 A47"/>
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1317,10 +1317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG5"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,897 +1335,1012 @@
       <c r="A1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.000328</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="U1" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="V1" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="W1" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="X1" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="0" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>0.00399999999999978</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AP2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AR2" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AS2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AT2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AU2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AV2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AW2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AX2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AY2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AZ2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BA2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BB2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BC2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BD2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BE2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BF2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="BG2" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="B3" s="0" t="n">
-        <v>0.000328</v>
+        <v>0.004</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.000338</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>0.000342</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.000335</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.000329</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>0.000326</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>0.000316</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>0.000315</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>0.000305</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>0.000299</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>0.000286</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>0.000273</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.00399999999999978</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>0.000256</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>0.000245</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>0.000224</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>0.000206</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>0.000182</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>0.000155</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>0.000139</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>0.000124</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>0.000107</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>9.2E-005</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>8.1E-005</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>7E-005</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>6.2E-005</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>5.6E-005</v>
       </c>
-      <c r="AP3" s="0" t="n">
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>4.5E-005</v>
       </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>4.2E-005</v>
       </c>
-      <c r="AR3" s="0" t="n">
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <v>3.4E-005</v>
       </c>
-      <c r="AS3" s="0" t="n">
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C45" s="0" t="n">
         <v>0.000688</v>
       </c>
-      <c r="AT3" s="0" t="n">
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>0.000251</v>
       </c>
-      <c r="AU3" s="0" t="n">
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C47" s="0" t="n">
         <v>0.000149</v>
       </c>
-      <c r="AV3" s="0" t="n">
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>0.000107</v>
       </c>
-      <c r="AW3" s="0" t="n">
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C49" s="0" t="n">
         <v>8.5E-005</v>
       </c>
-      <c r="AX3" s="0" t="n">
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>7.8E-005</v>
       </c>
-      <c r="AY3" s="0" t="n">
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C51" s="0" t="n">
         <v>6.7E-005</v>
       </c>
-      <c r="AZ3" s="0" t="n">
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>5.8E-005</v>
       </c>
-      <c r="BA3" s="0" t="n">
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C53" s="0" t="n">
         <v>5.4E-005</v>
       </c>
-      <c r="BB3" s="0" t="n">
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>5.3E-005</v>
       </c>
-      <c r="BC3" s="0" t="n">
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>5.3E-005</v>
       </c>
-      <c r="BD3" s="0" t="n">
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C56" s="0" t="n">
         <v>4.8E-005</v>
       </c>
-      <c r="BE3" s="0" t="n">
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <v>4.1E-005</v>
       </c>
-      <c r="BF3" s="0" t="n">
+      <c r="D57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C58" s="0" t="n">
         <v>3.8E-005</v>
       </c>
-      <c r="BG3" s="0" t="n">
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>3.8E-005</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AD5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AE5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AK5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AL5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AM5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AN5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AO5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AP5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AQ5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AR5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AS5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AT5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AU5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AV5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AW5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AX5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AY5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="AZ5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BA5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BB5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BC5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BD5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BE5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BF5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BG5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-    </row>
+      <c r="D59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1E-009</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2245,7 +2360,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="AS2 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2296,7 +2411,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="AS2 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
